--- a/data/zipcodes.xlsx
+++ b/data/zipcodes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattspotnitz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattspotnitz/Desktop/Data Science Class/Final Project/p8105_final_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896B4370-D287-6743-B6EC-BD6558B3229B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ACD1ED-3F89-0140-93CD-3DA7E0B2894D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="740" windowWidth="27640" windowHeight="16860" xr2:uid="{69248C6E-2142-4F47-A98B-E8EFF6E90CB1}"/>
+    <workbookView xWindow="12620" yWindow="1140" windowWidth="27640" windowHeight="16860" xr2:uid="{69248C6E-2142-4F47-A98B-E8EFF6E90CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -765,6 +765,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1156,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7003514-BB98-9342-A707-DA71C69335CD}">
   <dimension ref="A1:B241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1325,222 +1326,345 @@
         <v>94158</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B21" s="3">
+        <v>94304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B22" s="3">
+        <v>94114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B23" s="3">
+        <v>92501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
+        <v>92037</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <v>94118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26" s="3">
+        <v>92123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B27" s="3">
+        <v>92868</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28" s="3">
+        <v>95817</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" s="3">
+        <v>94305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="3">
+        <v>90057</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="3">
+        <v>90095</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" s="3">
+        <v>90033</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" s="3">
+        <v>80045</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="3">
+        <v>80210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="3">
+        <v>80218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" s="3">
+        <v>80045</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B37" s="3">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B38" s="3">
+        <v>6510</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B39" s="3">
+        <v>20010</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B40" s="3">
+        <v>20007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B41" s="3">
+        <v>20037</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B42" s="3">
+        <v>20889</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B43" s="3">
+        <v>19803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B44" s="3">
+        <v>19713</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B45" s="3">
+        <v>33331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B46" s="3">
+        <v>32803</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B47" s="3">
+        <v>33912</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B48" s="3">
+        <v>32114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B49" s="3">
+        <v>33136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B50" s="3">
+        <v>33770</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B51" s="3">
+        <v>33021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B52" s="3">
+        <v>32504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B53" s="3">
+        <v>32224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B54" s="3">
+        <v>33606</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B55" s="3">
+        <v>32608</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B56" s="3">
+        <v>30322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B57" s="3">
+        <v>30322</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B58" s="3">
+        <v>30912</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B59" s="3">
+        <v>30309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B60" s="3">
+        <v>96813</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B61" s="3">
+        <v>50309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>

--- a/data/zipcodes.xlsx
+++ b/data/zipcodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattspotnitz/Desktop/Data Science Class/Final Project/p8105_final_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ACD1ED-3F89-0140-93CD-3DA7E0B2894D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7D924A-A8E7-6547-BCA9-222B5C0C96BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12620" yWindow="1140" windowWidth="27640" windowHeight="16860" xr2:uid="{69248C6E-2142-4F47-A98B-E8EFF6E90CB1}"/>
+    <workbookView xWindow="8660" yWindow="460" windowWidth="27640" windowHeight="16860" xr2:uid="{69248C6E-2142-4F47-A98B-E8EFF6E90CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1155,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7003514-BB98-9342-A707-DA71C69335CD}">
-  <dimension ref="A1:B241"/>
+  <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A193" sqref="A193"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1654,97 +1654,127 @@
         <v>50309</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B62" s="3">
+        <v>52242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B63" s="3">
+        <v>50314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B64" s="3">
+        <v>52246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B65" s="3">
+        <v>60453</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B66" s="3">
+        <v>60611</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B67" s="3">
+        <v>60153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B68" s="3">
+        <v>62781</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B69" s="3">
+        <v>60611</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B70" s="3">
+        <v>60612</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B71" s="3">
+        <v>61637</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -2314,238 +2344,238 @@
         <v>192</v>
       </c>
     </row>
+    <row r="194" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
     <row r="195" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A241" s="1" t="s">
         <v>239</v>
       </c>
     </row>

--- a/data/zipcodes.xlsx
+++ b/data/zipcodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattspotnitz/Desktop/Data Science Class/Final Project/p8105_final_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7D924A-A8E7-6547-BCA9-222B5C0C96BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA3A2B-8B6F-6045-933F-A1030B46B5BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="460" windowWidth="27640" windowHeight="16860" xr2:uid="{69248C6E-2142-4F47-A98B-E8EFF6E90CB1}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16860" xr2:uid="{69248C6E-2142-4F47-A98B-E8EFF6E90CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7003514-BB98-9342-A707-DA71C69335CD}">
   <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1734,127 +1734,157 @@
         <v>61637</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B72" s="3">
+        <v>60637</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B73" s="3">
+        <v>60612</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B74" s="3">
+        <v>46202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B75" s="3">
+        <v>46804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B76" s="3">
+        <v>46260</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B77" s="3">
+        <v>66103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B78" s="3">
+        <v>40202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B79" s="3">
+        <v>40202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B80" s="3">
+        <v>40536</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B81" s="3">
+        <v>70118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>

--- a/data/zipcodes.xlsx
+++ b/data/zipcodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattspotnitz/Desktop/Data Science Class/Final Project/p8105_final_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA3A2B-8B6F-6045-933F-A1030B46B5BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB2DACE-8E46-FD4F-AC33-94A198B4D940}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16860" xr2:uid="{69248C6E-2142-4F47-A98B-E8EFF6E90CB1}"/>
+    <workbookView xWindow="2920" yWindow="580" windowWidth="27640" windowHeight="16800" xr2:uid="{69248C6E-2142-4F47-A98B-E8EFF6E90CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7003514-BB98-9342-A707-DA71C69335CD}">
   <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1814,69 +1814,108 @@
         <v>70118</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B82" s="3">
+        <v>70121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B83" s="3">
+        <v>70112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B84" s="3">
+        <v>71103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B85" s="3">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B86" s="3">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B87" s="3">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B88" s="3">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B89" s="3">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B90" s="3">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B91" s="3">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B92" s="3">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B93" s="3">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>21287</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="17" x14ac:dyDescent="0.2">

--- a/data/zipcodes.xlsx
+++ b/data/zipcodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattspotnitz/Desktop/Data Science Class/Final Project/p8105_final_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB2DACE-8E46-FD4F-AC33-94A198B4D940}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39909BD7-B852-394F-8AE0-1CFA13045788}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="580" windowWidth="27640" windowHeight="16800" xr2:uid="{69248C6E-2142-4F47-A98B-E8EFF6E90CB1}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16800" xr2:uid="{69248C6E-2142-4F47-A98B-E8EFF6E90CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7003514-BB98-9342-A707-DA71C69335CD}">
   <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1918,172 +1918,256 @@
         <v>21287</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B95" s="3">
+        <v>21201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B96" s="3">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B97" s="3">
+        <v>48073</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B98" s="3">
+        <v>48201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B99" s="3">
+        <v>49503</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B100" s="3">
+        <v>48202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B101" s="3">
+        <v>48201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B102" s="3">
+        <v>48236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B103" s="3">
+        <v>49503</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B104" s="3">
+        <v>48109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B105" s="3">
+        <v>55407</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B106" s="3">
+        <v>55415</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B107" s="3">
+        <v>55902</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B108" s="3">
+        <v>55454</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B109" s="3">
+        <v>63110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B110" s="3">
+        <v>63104</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B111" s="3">
+        <v>63110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B112" s="3">
+        <v>64108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B113" s="3">
+        <v>64111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B114" s="3">
+        <v>64132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B115" s="3">
+        <v>63104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B116" s="3">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B117" s="3">
+        <v>39216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B118" s="3">
+        <v>27157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B119" s="3">
+        <v>28203</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B120" s="3">
+        <v>27710</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B121" s="3">
+        <v>27834</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B122" s="3">
+        <v>27514</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>

--- a/data/zipcodes.xlsx
+++ b/data/zipcodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattspotnitz/Desktop/Data Science Class/Final Project/p8105_final_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39909BD7-B852-394F-8AE0-1CFA13045788}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B259266-CAF8-6C44-935C-853122BFB4F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16800" xr2:uid="{69248C6E-2142-4F47-A98B-E8EFF6E90CB1}"/>
   </bookViews>
@@ -754,7 +754,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -805,6 +805,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -829,7 +835,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment wrapText="1"/>
@@ -840,6 +846,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1157,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7003514-BB98-9342-A707-DA71C69335CD}">
   <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2142,112 +2149,166 @@
         <v>27514</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B123" s="3">
+        <v>58501</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B124" s="3">
+        <v>58104</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B125" s="3">
+        <v>68198</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B126" s="3">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B127" s="3">
+        <v>7112</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B128" s="3">
+        <v>7601</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B129" s="3">
+        <v>8103</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B130" s="3">
+        <v>8901</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B131" s="3">
+        <v>7039</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B132" s="3">
+        <v>87106</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B133" s="3">
+        <v>87106</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B134" s="8">
+        <v>89102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B135" s="3">
+        <v>12208</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B136" s="3">
+        <v>11040</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B137" s="3">
+        <v>10032</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B138" s="3">
+        <v>11203</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B139" s="3">
+        <v>14215</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B140" s="3">
+        <v>14642</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>

--- a/data/zipcodes.xlsx
+++ b/data/zipcodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattspotnitz/Desktop/Data Science Class/Final Project/p8105_final_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B259266-CAF8-6C44-935C-853122BFB4F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F23F3D-5FFA-4948-8F8F-29A6E8A8204F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16800" xr2:uid="{69248C6E-2142-4F47-A98B-E8EFF6E90CB1}"/>
   </bookViews>
@@ -1164,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7003514-BB98-9342-A707-DA71C69335CD}">
   <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2293,182 +2293,269 @@
         <v>14642</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B141" s="3">
+        <v>10467</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B142" s="3">
+        <v>10029</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B143" s="3">
+        <v>11030</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B144" s="3">
+        <v>10065</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B145" s="3">
+        <v>11794</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B146" s="3">
+        <v>10016</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B147" s="3">
+        <v>13210</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B148" s="3">
+        <v>10468</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B149" s="3">
+        <v>10595</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B150" s="3">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B151" s="3">
+        <v>43205</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B152" s="3">
+        <v>45229</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B153" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B154" s="3">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B155" s="3">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B156" s="3">
+        <v>45229</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B157" s="3">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B158" s="3">
+        <v>73112</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B159" s="3">
+        <v>73104</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B160" s="3">
+        <v>74136</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B161" s="3">
+        <v>74104</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B162" s="3">
+        <v>97210</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B163" s="3">
+        <v>97239</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B164" s="3">
+        <v>97239</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B165" s="3">
+        <v>19141</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B166" s="3">
+        <v>15212</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B167" s="3">
+        <v>19013</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B168" s="3">
+        <v>15224</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B169" s="3">
+        <v>19104</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>

--- a/data/zipcodes.xlsx
+++ b/data/zipcodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattspotnitz/Desktop/Data Science Class/Final Project/p8105_final_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F23F3D-5FFA-4948-8F8F-29A6E8A8204F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919BE480-2518-C344-ADF2-01D3EF630B05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16800" xr2:uid="{69248C6E-2142-4F47-A98B-E8EFF6E90CB1}"/>
   </bookViews>
@@ -1164,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7003514-BB98-9342-A707-DA71C69335CD}">
   <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2525,117 +2525,156 @@
         <v>19104</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B170" s="3">
+        <v>17822</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B171" s="3">
+        <v>17033</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B172" s="3">
+        <v>17101</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B173" s="3">
+        <v>19102</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B174" s="3">
+        <v>19096</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B175" s="3">
+        <v>18105</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B176" s="3">
+        <v>16550</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B177" s="3">
+        <v>15213</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B178" s="3">
+        <v>19134</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B179" s="3">
+        <v>19107</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B180" s="3">
+        <v>19140</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B181" s="3">
+        <v>19104</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B182" s="3">
+        <v>15240</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>

--- a/data/zipcodes.xlsx
+++ b/data/zipcodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattspotnitz/Desktop/Data Science Class/Final Project/p8105_final_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919BE480-2518-C344-ADF2-01D3EF630B05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72467385-540B-1D47-A02B-9A73774C7EBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16800" xr2:uid="{69248C6E-2142-4F47-A98B-E8EFF6E90CB1}"/>
   </bookViews>
@@ -1164,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7003514-BB98-9342-A707-DA71C69335CD}">
   <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2629,132 +2629,186 @@
         <v>15240</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B183" s="3">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B184" s="3">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B185" s="3">
+        <v>29425</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B186" s="3">
+        <v>57105</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B187" s="3">
+        <v>57117</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B188" s="8">
+        <v>37403</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B189" s="3">
+        <v>38103</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B190" s="3">
+        <v>38104</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B191" s="3">
+        <v>37203</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B192" s="3">
+        <v>37205</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B193" s="3">
+        <v>37920</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B194" s="3">
+        <v>37232</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B195" s="3">
+        <v>76104</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B196" s="3">
+        <v>78229</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B197" s="3">
+        <v>76104</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B198" s="3">
+        <v>75235</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B199" s="3">
+        <v>78411</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B200" s="3">
+        <v>78758</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>

--- a/data/zipcodes.xlsx
+++ b/data/zipcodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattspotnitz/Desktop/Data Science Class/Final Project/p8105_final_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72467385-540B-1D47-A02B-9A73774C7EBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82ED4EE-C1E8-164F-BCB5-76BB1B663E43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16800" xr2:uid="{69248C6E-2142-4F47-A98B-E8EFF6E90CB1}"/>
+    <workbookView xWindow="1160" yWindow="2600" windowWidth="27640" windowHeight="16800" xr2:uid="{69248C6E-2142-4F47-A98B-E8EFF6E90CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1164,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7003514-BB98-9342-A707-DA71C69335CD}">
   <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2773,204 +2773,324 @@
         <v>78758</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B201" s="3">
+        <v>78539</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B202" s="3">
+        <v>76104</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B203" s="8">
+        <v>75230</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B204" s="3">
+        <v>77030</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B205" s="3">
+        <v>77030</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B206" s="3">
+        <v>78229</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B207" s="3">
+        <v>77555</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B208" s="3">
+        <v>79902</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B209" s="3">
+        <v>75203</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B210" s="3">
+        <v>77030</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B211" s="3">
+        <v>76104</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B212" s="3">
+        <v>75235</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B213" s="3">
+        <v>78229</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B214" s="3">
+        <v>75390</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B215" s="3">
+        <v>76508</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B216" s="3">
+        <v>77030</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B217" s="3">
+        <v>75246</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B218" s="3">
+        <v>75701</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B219" s="3">
+        <v>78229</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B220" s="3">
+        <v>77030</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B221" s="3">
+        <v>84107</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B222" s="3">
+        <v>84132</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B223" s="3">
+        <v>84113</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B224" s="3">
+        <v>23507</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B225" s="3">
+        <v>22042</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B226" s="3">
+        <v>23229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B227" s="3">
+        <v>23219</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B228" s="3">
+        <v>23507</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B229" s="3">
+        <v>22908</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B230" s="3">
+        <v>5401</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B231" s="3">
+        <v>98105</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B232" s="3">
+        <v>99204</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B233" s="8">
+        <v>98122</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B234" s="3">
+        <v>98195</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B235" s="3">
+        <v>98111</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B236" s="3">
+        <v>53226</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B237" s="3">
+        <v>53226</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B238" s="3">
+        <v>53215</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B239" s="3">
+        <v>53792</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>239</v>
+      </c>
+      <c r="B240" s="3">
+        <v>25325</v>
       </c>
     </row>
   </sheetData>

--- a/data/zipcodes.xlsx
+++ b/data/zipcodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattspotnitz/Desktop/Data Science Class/Final Project/p8105_final_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82ED4EE-C1E8-164F-BCB5-76BB1B663E43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FC1DA8-1C2A-1C4A-B18C-FF286CF247DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="2600" windowWidth="27640" windowHeight="16800" xr2:uid="{69248C6E-2142-4F47-A98B-E8EFF6E90CB1}"/>
+    <workbookView xWindow="1160" yWindow="540" windowWidth="27640" windowHeight="16800" xr2:uid="{69248C6E-2142-4F47-A98B-E8EFF6E90CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -754,6 +754,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00000"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -835,18 +838,19 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1164,20 +1168,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7003514-BB98-9342-A707-DA71C69335CD}">
   <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>240</v>
       </c>
     </row>
@@ -1185,7 +1190,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>240</v>
       </c>
     </row>
@@ -1193,7 +1198,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>35233</v>
       </c>
     </row>
@@ -1201,7 +1206,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>35233</v>
       </c>
     </row>
@@ -1209,7 +1214,7 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>35233</v>
       </c>
     </row>
@@ -1217,7 +1222,7 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>72202</v>
       </c>
     </row>
@@ -1225,7 +1230,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>72205</v>
       </c>
     </row>
@@ -1233,7 +1238,7 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>85016</v>
       </c>
     </row>
@@ -1241,7 +1246,7 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>85006</v>
       </c>
     </row>
@@ -1249,7 +1254,7 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>85054</v>
       </c>
     </row>
@@ -1257,7 +1262,7 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>85013</v>
       </c>
     </row>
@@ -1265,7 +1270,7 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>85719</v>
       </c>
     </row>
@@ -1273,7 +1278,7 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>92024</v>
       </c>
     </row>
@@ -1281,7 +1286,7 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>90027</v>
       </c>
     </row>
@@ -1289,7 +1294,7 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="7">
         <v>90211</v>
       </c>
     </row>
@@ -1297,7 +1302,7 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>92037</v>
       </c>
     </row>
@@ -1305,7 +1310,7 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>92868</v>
       </c>
     </row>
@@ -1313,7 +1318,7 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="8">
         <v>90509</v>
       </c>
     </row>
@@ -1321,7 +1326,7 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>92354</v>
       </c>
     </row>
@@ -1329,7 +1334,7 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>94158</v>
       </c>
     </row>
@@ -1337,7 +1342,7 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>94304</v>
       </c>
     </row>
@@ -1345,7 +1350,7 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>94114</v>
       </c>
     </row>
@@ -1353,7 +1358,7 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>92501</v>
       </c>
     </row>
@@ -1361,7 +1366,7 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>92037</v>
       </c>
     </row>
@@ -1369,7 +1374,7 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>94118</v>
       </c>
     </row>
@@ -1377,7 +1382,7 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>92123</v>
       </c>
     </row>
@@ -1385,7 +1390,7 @@
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>92868</v>
       </c>
     </row>
@@ -1393,7 +1398,7 @@
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>95817</v>
       </c>
     </row>
@@ -1401,7 +1406,7 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>94305</v>
       </c>
     </row>
@@ -1409,7 +1414,7 @@
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>90057</v>
       </c>
     </row>
@@ -1417,7 +1422,7 @@
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>90095</v>
       </c>
     </row>
@@ -1425,7 +1430,7 @@
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>90033</v>
       </c>
     </row>
@@ -1433,7 +1438,7 @@
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>80045</v>
       </c>
     </row>
@@ -1441,7 +1446,7 @@
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>80210</v>
       </c>
     </row>
@@ -1449,7 +1454,7 @@
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>80218</v>
       </c>
     </row>
@@ -1457,7 +1462,7 @@
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <v>80045</v>
       </c>
     </row>
@@ -1465,7 +1470,7 @@
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <v>6102</v>
       </c>
     </row>
@@ -1473,7 +1478,7 @@
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <v>6510</v>
       </c>
     </row>
@@ -1481,7 +1486,7 @@
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <v>20010</v>
       </c>
     </row>
@@ -1489,7 +1494,7 @@
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <v>20007</v>
       </c>
     </row>
@@ -1497,7 +1502,7 @@
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <v>20037</v>
       </c>
     </row>
@@ -1505,7 +1510,7 @@
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <v>20889</v>
       </c>
     </row>
@@ -1513,7 +1518,7 @@
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <v>19803</v>
       </c>
     </row>
@@ -1521,7 +1526,7 @@
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <v>19713</v>
       </c>
     </row>
@@ -1529,7 +1534,7 @@
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <v>33331</v>
       </c>
     </row>
@@ -1537,7 +1542,7 @@
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <v>32803</v>
       </c>
     </row>
@@ -1545,7 +1550,7 @@
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <v>33912</v>
       </c>
     </row>
@@ -1553,7 +1558,7 @@
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <v>32114</v>
       </c>
     </row>
@@ -1561,7 +1566,7 @@
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="4">
         <v>33136</v>
       </c>
     </row>
@@ -1569,7 +1574,7 @@
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="4">
         <v>33770</v>
       </c>
     </row>
@@ -1577,7 +1582,7 @@
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="4">
         <v>33021</v>
       </c>
     </row>
@@ -1585,7 +1590,7 @@
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="4">
         <v>32504</v>
       </c>
     </row>
@@ -1593,7 +1598,7 @@
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="4">
         <v>32224</v>
       </c>
     </row>
@@ -1601,7 +1606,7 @@
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <v>33606</v>
       </c>
     </row>
@@ -1609,7 +1614,7 @@
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="4">
         <v>32608</v>
       </c>
     </row>
@@ -1617,7 +1622,7 @@
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="4">
         <v>30322</v>
       </c>
     </row>
@@ -1625,7 +1630,7 @@
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <v>30322</v>
       </c>
     </row>
@@ -1633,7 +1638,7 @@
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <v>30912</v>
       </c>
     </row>
@@ -1641,7 +1646,7 @@
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="4">
         <v>30309</v>
       </c>
     </row>
@@ -1649,7 +1654,7 @@
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="4">
         <v>96813</v>
       </c>
     </row>
@@ -1657,7 +1662,7 @@
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="4">
         <v>50309</v>
       </c>
     </row>
@@ -1665,7 +1670,7 @@
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <v>52242</v>
       </c>
     </row>
@@ -1673,7 +1678,7 @@
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="4">
         <v>50314</v>
       </c>
     </row>
@@ -1681,7 +1686,7 @@
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="4">
         <v>52246</v>
       </c>
     </row>
@@ -1689,7 +1694,7 @@
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="4">
         <v>60453</v>
       </c>
     </row>
@@ -1697,7 +1702,7 @@
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="4">
         <v>60611</v>
       </c>
     </row>
@@ -1705,7 +1710,7 @@
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="4">
         <v>60153</v>
       </c>
     </row>
@@ -1713,7 +1718,7 @@
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="4">
         <v>62781</v>
       </c>
     </row>
@@ -1721,7 +1726,7 @@
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="4">
         <v>60611</v>
       </c>
     </row>
@@ -1729,7 +1734,7 @@
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="4">
         <v>60612</v>
       </c>
     </row>
@@ -1737,7 +1742,7 @@
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="4">
         <v>61637</v>
       </c>
     </row>
@@ -1745,7 +1750,7 @@
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="4">
         <v>60637</v>
       </c>
     </row>
@@ -1753,7 +1758,7 @@
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="4">
         <v>60612</v>
       </c>
     </row>
@@ -1761,7 +1766,7 @@
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="4">
         <v>46202</v>
       </c>
     </row>
@@ -1769,7 +1774,7 @@
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="4">
         <v>46804</v>
       </c>
     </row>
@@ -1777,7 +1782,7 @@
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="4">
         <v>46260</v>
       </c>
     </row>
@@ -1785,7 +1790,7 @@
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="4">
         <v>66103</v>
       </c>
     </row>
@@ -1793,7 +1798,7 @@
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="4">
         <v>40202</v>
       </c>
     </row>
@@ -1801,7 +1806,7 @@
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="4">
         <v>40202</v>
       </c>
     </row>
@@ -1809,7 +1814,7 @@
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="4">
         <v>40536</v>
       </c>
     </row>
@@ -1817,7 +1822,7 @@
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="4">
         <v>70118</v>
       </c>
     </row>
@@ -1825,7 +1830,7 @@
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="4">
         <v>70121</v>
       </c>
     </row>
@@ -1833,7 +1838,7 @@
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="4">
         <v>70112</v>
       </c>
     </row>
@@ -1841,7 +1846,7 @@
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="4">
         <v>71103</v>
       </c>
     </row>
@@ -1849,7 +1854,7 @@
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="4">
         <v>2215</v>
       </c>
     </row>
@@ -1857,7 +1862,7 @@
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="4">
         <v>1199</v>
       </c>
     </row>
@@ -1865,7 +1870,7 @@
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="4">
         <v>2118</v>
       </c>
     </row>
@@ -1873,7 +1878,7 @@
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="4">
         <v>2115</v>
       </c>
     </row>
@@ -1881,7 +1886,7 @@
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="4">
         <v>1805</v>
       </c>
     </row>
@@ -1889,7 +1894,7 @@
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="4">
         <v>2114</v>
       </c>
     </row>
@@ -1897,7 +1902,7 @@
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="4">
         <v>2111</v>
       </c>
     </row>
@@ -1905,7 +1910,7 @@
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="4">
         <v>2115</v>
       </c>
     </row>
@@ -1913,7 +1918,7 @@
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="4">
         <v>1655</v>
       </c>
     </row>
@@ -1921,7 +1926,7 @@
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="4">
         <v>21287</v>
       </c>
     </row>
@@ -1929,7 +1934,7 @@
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="4">
         <v>21201</v>
       </c>
     </row>
@@ -1937,7 +1942,7 @@
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="4">
         <v>4102</v>
       </c>
     </row>
@@ -1945,7 +1950,7 @@
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="4">
         <v>48073</v>
       </c>
     </row>
@@ -1953,7 +1958,7 @@
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="4">
         <v>48201</v>
       </c>
     </row>
@@ -1961,7 +1966,7 @@
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="4">
         <v>49503</v>
       </c>
     </row>
@@ -1969,7 +1974,7 @@
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="4">
         <v>48202</v>
       </c>
     </row>
@@ -1977,7 +1982,7 @@
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="4">
         <v>48201</v>
       </c>
     </row>
@@ -1985,7 +1990,7 @@
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="4">
         <v>48236</v>
       </c>
     </row>
@@ -1993,7 +1998,7 @@
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="4">
         <v>49503</v>
       </c>
     </row>
@@ -2001,7 +2006,7 @@
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="4">
         <v>48109</v>
       </c>
     </row>
@@ -2009,7 +2014,7 @@
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="4">
         <v>55407</v>
       </c>
     </row>
@@ -2017,7 +2022,7 @@
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="4">
         <v>55415</v>
       </c>
     </row>
@@ -2025,7 +2030,7 @@
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="4">
         <v>55902</v>
       </c>
     </row>
@@ -2033,7 +2038,7 @@
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="4">
         <v>55454</v>
       </c>
     </row>
@@ -2041,7 +2046,7 @@
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="4">
         <v>63110</v>
       </c>
     </row>
@@ -2049,7 +2054,7 @@
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="4">
         <v>63104</v>
       </c>
     </row>
@@ -2057,7 +2062,7 @@
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="4">
         <v>63110</v>
       </c>
     </row>
@@ -2065,7 +2070,7 @@
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="4">
         <v>64108</v>
       </c>
     </row>
@@ -2073,7 +2078,7 @@
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="4">
         <v>64111</v>
       </c>
     </row>
@@ -2081,7 +2086,7 @@
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="4">
         <v>64132</v>
       </c>
     </row>
@@ -2089,7 +2094,7 @@
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="4">
         <v>63104</v>
       </c>
     </row>
@@ -2097,7 +2102,7 @@
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="4">
         <v>65201</v>
       </c>
     </row>
@@ -2105,7 +2110,7 @@
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="4">
         <v>39216</v>
       </c>
     </row>
@@ -2113,7 +2118,7 @@
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="4">
         <v>27157</v>
       </c>
     </row>
@@ -2121,7 +2126,7 @@
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="4">
         <v>28203</v>
       </c>
     </row>
@@ -2129,7 +2134,7 @@
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="4">
         <v>27710</v>
       </c>
     </row>
@@ -2137,7 +2142,7 @@
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="4">
         <v>27834</v>
       </c>
     </row>
@@ -2145,7 +2150,7 @@
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="4">
         <v>27514</v>
       </c>
     </row>
@@ -2153,7 +2158,7 @@
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="4">
         <v>58501</v>
       </c>
     </row>
@@ -2161,7 +2166,7 @@
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="4">
         <v>58104</v>
       </c>
     </row>
@@ -2169,7 +2174,7 @@
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="4">
         <v>68198</v>
       </c>
     </row>
@@ -2177,7 +2182,7 @@
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="4">
         <v>3756</v>
       </c>
     </row>
@@ -2185,7 +2190,7 @@
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="4">
         <v>7112</v>
       </c>
     </row>
@@ -2193,7 +2198,7 @@
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="4">
         <v>7601</v>
       </c>
     </row>
@@ -2201,7 +2206,7 @@
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="4">
         <v>8103</v>
       </c>
     </row>
@@ -2209,7 +2214,7 @@
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="4">
         <v>8901</v>
       </c>
     </row>
@@ -2217,7 +2222,7 @@
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="4">
         <v>7039</v>
       </c>
     </row>
@@ -2225,7 +2230,7 @@
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="4">
         <v>87106</v>
       </c>
     </row>
@@ -2233,7 +2238,7 @@
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="4">
         <v>87106</v>
       </c>
     </row>
@@ -2241,7 +2246,7 @@
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B134" s="8">
+      <c r="B134" s="9">
         <v>89102</v>
       </c>
     </row>
@@ -2249,7 +2254,7 @@
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="4">
         <v>12208</v>
       </c>
     </row>
@@ -2257,7 +2262,7 @@
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="4">
         <v>11040</v>
       </c>
     </row>
@@ -2265,7 +2270,7 @@
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="4">
         <v>10032</v>
       </c>
     </row>
@@ -2273,7 +2278,7 @@
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="4">
         <v>11203</v>
       </c>
     </row>
@@ -2281,7 +2286,7 @@
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="4">
         <v>14215</v>
       </c>
     </row>
@@ -2289,7 +2294,7 @@
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="4">
         <v>14642</v>
       </c>
     </row>
@@ -2297,7 +2302,7 @@
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="4">
         <v>10467</v>
       </c>
     </row>
@@ -2305,7 +2310,7 @@
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="4">
         <v>10029</v>
       </c>
     </row>
@@ -2313,7 +2318,7 @@
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="4">
         <v>11030</v>
       </c>
     </row>
@@ -2321,7 +2326,7 @@
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="4">
         <v>10065</v>
       </c>
     </row>
@@ -2329,7 +2334,7 @@
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="4">
         <v>11794</v>
       </c>
     </row>
@@ -2337,7 +2342,7 @@
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="4">
         <v>10016</v>
       </c>
     </row>
@@ -2345,7 +2350,7 @@
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="4">
         <v>13210</v>
       </c>
     </row>
@@ -2353,7 +2358,7 @@
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="4">
         <v>10468</v>
       </c>
     </row>
@@ -2361,7 +2366,7 @@
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="4">
         <v>10595</v>
       </c>
     </row>
@@ -2369,7 +2374,7 @@
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="4">
         <v>44195</v>
       </c>
     </row>
@@ -2377,7 +2382,7 @@
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="4">
         <v>43205</v>
       </c>
     </row>
@@ -2385,7 +2390,7 @@
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="4">
         <v>45229</v>
       </c>
     </row>
@@ -2393,7 +2398,7 @@
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="4">
         <v>43614</v>
       </c>
     </row>
@@ -2401,7 +2406,7 @@
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="4">
         <v>43210</v>
       </c>
     </row>
@@ -2409,7 +2414,7 @@
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="4">
         <v>45219</v>
       </c>
     </row>
@@ -2417,7 +2422,7 @@
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="4">
         <v>45229</v>
       </c>
     </row>
@@ -2425,7 +2430,7 @@
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="4">
         <v>44106</v>
       </c>
     </row>
@@ -2433,7 +2438,7 @@
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="4">
         <v>73112</v>
       </c>
     </row>
@@ -2441,7 +2446,7 @@
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="4">
         <v>73104</v>
       </c>
     </row>
@@ -2449,7 +2454,7 @@
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="4">
         <v>74136</v>
       </c>
     </row>
@@ -2457,7 +2462,7 @@
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="4">
         <v>74104</v>
       </c>
     </row>
@@ -2465,7 +2470,7 @@
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="4">
         <v>97210</v>
       </c>
     </row>
@@ -2473,7 +2478,7 @@
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="4">
         <v>97239</v>
       </c>
     </row>
@@ -2481,7 +2486,7 @@
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="4">
         <v>97239</v>
       </c>
     </row>
@@ -2489,7 +2494,7 @@
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="4">
         <v>19141</v>
       </c>
     </row>
@@ -2497,7 +2502,7 @@
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="4">
         <v>15212</v>
       </c>
     </row>
@@ -2505,7 +2510,7 @@
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="4">
         <v>19013</v>
       </c>
     </row>
@@ -2513,7 +2518,7 @@
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="4">
         <v>15224</v>
       </c>
     </row>
@@ -2521,7 +2526,7 @@
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="4">
         <v>19104</v>
       </c>
     </row>
@@ -2529,7 +2534,7 @@
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="4">
         <v>17822</v>
       </c>
     </row>
@@ -2537,7 +2542,7 @@
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="4">
         <v>17033</v>
       </c>
     </row>
@@ -2545,7 +2550,7 @@
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="4">
         <v>17101</v>
       </c>
     </row>
@@ -2553,7 +2558,7 @@
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="4">
         <v>19102</v>
       </c>
     </row>
@@ -2561,7 +2566,7 @@
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="4">
         <v>19096</v>
       </c>
     </row>
@@ -2569,7 +2574,7 @@
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="4">
         <v>18105</v>
       </c>
     </row>
@@ -2577,7 +2582,7 @@
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="4">
         <v>16550</v>
       </c>
     </row>
@@ -2585,7 +2590,7 @@
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="4">
         <v>15213</v>
       </c>
     </row>
@@ -2593,7 +2598,7 @@
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="4">
         <v>19134</v>
       </c>
     </row>
@@ -2601,7 +2606,7 @@
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="4">
         <v>19107</v>
       </c>
     </row>
@@ -2609,7 +2614,7 @@
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="4">
         <v>19140</v>
       </c>
     </row>
@@ -2617,7 +2622,7 @@
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="4">
         <v>19104</v>
       </c>
     </row>
@@ -2625,7 +2630,7 @@
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="4">
         <v>15240</v>
       </c>
     </row>
@@ -2633,7 +2638,7 @@
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="4">
         <v>919</v>
       </c>
     </row>
@@ -2641,7 +2646,7 @@
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="4">
         <v>2903</v>
       </c>
     </row>
@@ -2649,7 +2654,7 @@
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="4">
         <v>29425</v>
       </c>
     </row>
@@ -2657,7 +2662,7 @@
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="4">
         <v>57105</v>
       </c>
     </row>
@@ -2665,7 +2670,7 @@
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="4">
         <v>57117</v>
       </c>
     </row>
@@ -2673,7 +2678,7 @@
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B188" s="8">
+      <c r="B188" s="9">
         <v>37403</v>
       </c>
     </row>
@@ -2681,7 +2686,7 @@
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="4">
         <v>38103</v>
       </c>
     </row>
@@ -2689,7 +2694,7 @@
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="4">
         <v>38104</v>
       </c>
     </row>
@@ -2697,7 +2702,7 @@
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="4">
         <v>37203</v>
       </c>
     </row>
@@ -2705,7 +2710,7 @@
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="4">
         <v>37205</v>
       </c>
     </row>
@@ -2713,7 +2718,7 @@
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="4">
         <v>37920</v>
       </c>
     </row>
@@ -2721,7 +2726,7 @@
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" s="4">
         <v>37232</v>
       </c>
     </row>
@@ -2729,7 +2734,7 @@
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="4">
         <v>76104</v>
       </c>
     </row>
@@ -2737,7 +2742,7 @@
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" s="4">
         <v>78229</v>
       </c>
     </row>
@@ -2745,7 +2750,7 @@
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="4">
         <v>76104</v>
       </c>
     </row>
@@ -2753,7 +2758,7 @@
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" s="4">
         <v>75235</v>
       </c>
     </row>
@@ -2761,7 +2766,7 @@
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="4">
         <v>78411</v>
       </c>
     </row>
@@ -2769,7 +2774,7 @@
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="4">
         <v>78758</v>
       </c>
     </row>
@@ -2777,7 +2782,7 @@
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="4">
         <v>78539</v>
       </c>
     </row>
@@ -2785,7 +2790,7 @@
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202" s="4">
         <v>76104</v>
       </c>
     </row>
@@ -2793,7 +2798,7 @@
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B203" s="8">
+      <c r="B203" s="9">
         <v>75230</v>
       </c>
     </row>
@@ -2801,7 +2806,7 @@
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204" s="4">
         <v>77030</v>
       </c>
     </row>
@@ -2809,7 +2814,7 @@
       <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205" s="4">
         <v>77030</v>
       </c>
     </row>
@@ -2817,7 +2822,7 @@
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B206" s="4">
         <v>78229</v>
       </c>
     </row>
@@ -2825,7 +2830,7 @@
       <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207" s="4">
         <v>77555</v>
       </c>
     </row>
@@ -2833,7 +2838,7 @@
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B208" s="4">
         <v>79902</v>
       </c>
     </row>
@@ -2841,7 +2846,7 @@
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B209" s="4">
         <v>75203</v>
       </c>
     </row>
@@ -2849,7 +2854,7 @@
       <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210" s="4">
         <v>77030</v>
       </c>
     </row>
@@ -2857,7 +2862,7 @@
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211" s="4">
         <v>76104</v>
       </c>
     </row>
@@ -2865,7 +2870,7 @@
       <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B212" s="4">
         <v>75235</v>
       </c>
     </row>
@@ -2873,7 +2878,7 @@
       <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B213" s="4">
         <v>78229</v>
       </c>
     </row>
@@ -2881,7 +2886,7 @@
       <c r="A214" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B214" s="4">
         <v>75390</v>
       </c>
     </row>
@@ -2889,7 +2894,7 @@
       <c r="A215" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B215" s="4">
         <v>76508</v>
       </c>
     </row>
@@ -2897,7 +2902,7 @@
       <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B216" s="4">
         <v>77030</v>
       </c>
     </row>
@@ -2905,7 +2910,7 @@
       <c r="A217" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B217" s="4">
         <v>75246</v>
       </c>
     </row>
@@ -2913,7 +2918,7 @@
       <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B218" s="4">
         <v>75701</v>
       </c>
     </row>
@@ -2921,7 +2926,7 @@
       <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B219" s="4">
         <v>78229</v>
       </c>
     </row>
@@ -2929,7 +2934,7 @@
       <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B220" s="4">
         <v>77030</v>
       </c>
     </row>
@@ -2937,7 +2942,7 @@
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B221" s="4">
         <v>84107</v>
       </c>
     </row>
@@ -2945,7 +2950,7 @@
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B222" s="4">
         <v>84132</v>
       </c>
     </row>
@@ -2953,7 +2958,7 @@
       <c r="A223" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B223" s="4">
         <v>84113</v>
       </c>
     </row>
@@ -2961,7 +2966,7 @@
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B224" s="4">
         <v>23507</v>
       </c>
     </row>
@@ -2969,7 +2974,7 @@
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B225" s="4">
         <v>22042</v>
       </c>
     </row>
@@ -2977,7 +2982,7 @@
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B226" s="4">
         <v>23229</v>
       </c>
     </row>
@@ -2985,7 +2990,7 @@
       <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B227" s="4">
         <v>23219</v>
       </c>
     </row>
@@ -2993,7 +2998,7 @@
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B228" s="4">
         <v>23507</v>
       </c>
     </row>
@@ -3001,7 +3006,7 @@
       <c r="A229" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B229" s="4">
         <v>22908</v>
       </c>
     </row>
@@ -3009,7 +3014,7 @@
       <c r="A230" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B230" s="4">
         <v>5401</v>
       </c>
     </row>
@@ -3017,7 +3022,7 @@
       <c r="A231" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B231" s="4">
         <v>98105</v>
       </c>
     </row>
@@ -3025,7 +3030,7 @@
       <c r="A232" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B232" s="4">
         <v>99204</v>
       </c>
     </row>
@@ -3033,7 +3038,7 @@
       <c r="A233" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B233" s="8">
+      <c r="B233" s="9">
         <v>98122</v>
       </c>
     </row>
@@ -3041,7 +3046,7 @@
       <c r="A234" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B234" s="4">
         <v>98195</v>
       </c>
     </row>
@@ -3049,7 +3054,7 @@
       <c r="A235" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B235" s="4">
         <v>98111</v>
       </c>
     </row>
@@ -3057,7 +3062,7 @@
       <c r="A236" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B236" s="3">
+      <c r="B236" s="4">
         <v>53226</v>
       </c>
     </row>
@@ -3065,7 +3070,7 @@
       <c r="A237" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B237" s="4">
         <v>53226</v>
       </c>
     </row>
@@ -3073,7 +3078,7 @@
       <c r="A238" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B238" s="3">
+      <c r="B238" s="4">
         <v>53215</v>
       </c>
     </row>
@@ -3081,7 +3086,7 @@
       <c r="A239" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B239" s="4">
         <v>53792</v>
       </c>
     </row>
@@ -3089,7 +3094,7 @@
       <c r="A240" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B240" s="3">
+      <c r="B240" s="4">
         <v>25325</v>
       </c>
     </row>
